--- a/packages/@okta/vuepress-site/.vuepress/public/standards/SCIM/SCIMFiles/okta-scim-test-plan.xlsx
+++ b/packages/@okta/vuepress-site/.vuepress/public/standards/SCIM/SCIMFiles/okta-scim-test-plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianhakes/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alatiniuk/Downloads/test_plan_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E71751D-3F67-7143-B1F4-F0C5AA7ACADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B97A3B8-81C8-714A-A116-5B1C2CD4AD9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="460" windowWidth="36880" windowHeight="26620" xr2:uid="{FB3D45DF-0B79-8F4C-80D4-95659668BA2D}"/>
+    <workbookView xWindow="42440" yWindow="5980" windowWidth="28800" windowHeight="16440" xr2:uid="{FB3D45DF-0B79-8F4C-80D4-95659668BA2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -257,17 +257,6 @@
 </t>
   </si>
   <si>
-    <t>1. Log in to Okta as Admin _x000D_
-2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
-3. From the **Dashboard**, search your application _x000D_
-4. From the **Application** page,  select **Assignments tab**_x000D_
-6. Unders **Assignments tab**, click an end user's name._x000D_
-7. From the **User Profile** page, click **More Actions**_x000D_
-8. Click **Suspend**_x000D_
-9. Go to the target app _x000D_
-10. Observe the user</t>
-  </si>
-  <si>
     <t>Suspended users cannot log in to Okta and receive a message indicating they are suspended. The Okta sign in is blocked for apps that support SAML. App and group memberships are maintained for suspended users and are reinstated if the user is subsequently unsuspended.</t>
   </si>
   <si>
@@ -292,12 +281,6 @@
 8. From the **Unassign Group** pane, click **OK**</t>
   </si>
   <si>
-    <t xml:space="preserve">This removes the group and users from group and people assignments. All users from this group will be removed from the app. _x000D_
-(NOTE: If app does not support DELETE, The end users are listed as Deactivated under the Status column in App)_x000D_
-_x000D_
-</t>
-  </si>
-  <si>
     <t>C9306</t>
   </si>
   <si>
@@ -380,16 +363,6 @@
     <t xml:space="preserve">1. SCIM app is added [C9298]_x000D_
 2. Provisioning is enabled [C9306]_x000D_
 </t>
-  </si>
-  <si>
-    <t>1. Log in to Okta as **Admin** _x000D_
-2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
-3. From the **Dashboard** page, search your application _x000D_
-4. From the **Application** page, select **Provisioning** tab_x000D_
-5. Under **Provisioning** tab select **Settings**_x000D_
-6. Click **To App**_x000D_
-7. Scoll to  **Profile Editor**_x000D_
-8. Observe **Attribute type**</t>
   </si>
   <si>
     <t>1, Make sure the following attributes set as **Attribute type=Personal**: Username, Given name, Family name Primary email and etc._x000D_
@@ -426,9 +399,6 @@
   </si>
   <si>
     <t>Verify Attributes and Mapping</t>
-  </si>
-  <si>
-    <t>OKTA is able to master attributes like first name, last name, phone employeeId and so on.  Very attributes mapping between OKTA and downstream application. The whole list of attributes should be listed in configuration guide</t>
   </si>
   <si>
     <t>C9299</t>
@@ -759,6 +729,861 @@
   </si>
   <si>
     <t>Verify Sync Password Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okta sets the user’s password or user sets a new password it depends on a configuration. The user should be able to log in to the application using a new password. _x000D_
+The user should not be able to log in to a downstream application using an old password. </t>
+  </si>
+  <si>
+    <t>C9291</t>
+  </si>
+  <si>
+    <t>Verify User Attribute Update</t>
+  </si>
+  <si>
+    <t>Update Users</t>
+  </si>
+  <si>
+    <t>1. Log in to Okta as **Admin** _x000D_
+2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
+3. From the **Dashboard** page, search your application _x000D_
+4. From the Application page, select **Assignments tab**_x000D_
+5. Under **Assignments tab**, click the edit icon of an assigned user_x000D_
+6. From the **Edit User Assignment** pane, edit/update all available attributes (for example firstName and lastName etc.)_x000D_
+7. Click **Save**_x000D_
+8. Go to the target app _x000D_
+9. Observe the user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update the downstream user’s attributes when the Okta user is updated. </t>
+  </si>
+  <si>
+    <t>C9310</t>
+  </si>
+  <si>
+    <t>Verify Update User Attributes from User Profile</t>
+  </si>
+  <si>
+    <t>1. Log in to Okta as **Admin** _x000D_
+2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
+3. From the **Dashboard** page, search your application _x000D_
+4. From the **Application** page, select **Assignments** tab_x000D_
+5. Under **Assignments** tab,  from **Filters**_x000D_
+6. Click **People**_x000D_
+7. Click an end user's name_x000D_
+8. From the **User Profile** page, click **Profile** tab_x000D_
+9. Click **Edit**_x000D_
+10. Update mapped attributes_x000D_
+11. Click **Save**</t>
+  </si>
+  <si>
+    <t>The user should be updated in a downstream application based on values derived from the Okta user profile.</t>
+  </si>
+  <si>
+    <t>C9309</t>
+  </si>
+  <si>
+    <t>Verify Update For User Group Attributes</t>
+  </si>
+  <si>
+    <t>1. Log in to Okta as **Admin** _x000D_
+2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
+3. From the **Dashboard** page, search your application _x000D_
+4. From the **Application** page, select **Assignments** tab_x000D_
+5. Under **Assignments** tab,  click **Filters**_x000D_
+6. Click **Groups**_x000D_
+7. Click the pencil icon to edit the group_x000D_
+8. From the **Edit Group Assignment** pane, modify group attributes_x000D_
+9. Click **Save**</t>
+  </si>
+  <si>
+    <t>The users from the group should be updated in a downstream application based on values derived from the Okta group assignment.</t>
+  </si>
+  <si>
+    <t>C9337</t>
+  </si>
+  <si>
+    <t>Verify Update To Push Empty Values</t>
+  </si>
+  <si>
+    <t>1. Log in to Okta as **Admin** _x000D_
+2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
+3. From the **Dashboard** page, search your application _x000D_
+4. From the **Application** page, select **Assignments** tab_x000D_
+5. Under **Assignments** tab,  click **Filters**_x000D_
+6. Click **Groups**_x000D_
+7. Click the pencil icon to edit the group_x000D_
+8. From the **Edit Group Assignment** pane, erase group attributes_x000D_
+9. Click **Save**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No errors encountered because of empty values</t>
+  </si>
+  <si>
+    <t>C9312</t>
+  </si>
+  <si>
+    <t>Verify Push Groups &gt; Create Group</t>
+  </si>
+  <si>
+    <t>Using Group Push</t>
+  </si>
+  <si>
+    <t>1. SCIM app is added [C9298]_x000D_
+2. Provisioning is enabled [C9306]_x000D_
+3. The group with members already assigned to the App [C9307]_x000D_
+4. Rename app groups to match group name in Okta, flag ENABLED [C9313]_x000D_
+_x000D_
+NOTE: _x000D_
+Any group members that you wish to push to the target app MUST be previously provisioned and assigned to the target app.</t>
+  </si>
+  <si>
+    <t>1. Log in to Okta as **Admin**_x000D_
+2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
+3. From the **Dashboard** page, search your application_x000D_
+4. From the **Application** page, select the **Push Groups** tab_x000D_
+5. Under **Push Groups** tab, click **Push Groups**_x000D_
+6. Click **Find groups by name**_x000D_
+7. Enter a group to push_x000D_
+8. Under **Match result &amp; push action**, select  **Create Group**_x000D_
+9. Click **Save**_x000D_
+10. Log in to **Downstream Application** and observe the created group</t>
+  </si>
+  <si>
+    <t>This group should be created in a target app. This is group push without enhanced functionality. All users from the group are assigned in the app to this group. _x000D_
+_x000D_
+NOTE: While Group Push adds these groups to third-party apps, it does not create groups in Okta.</t>
+  </si>
+  <si>
+    <t>C9315</t>
+  </si>
+  <si>
+    <t>Verify Push Groups &gt; Link Group &gt;Rename App Group</t>
+  </si>
+  <si>
+    <t>1. SCIM app is added [C9298]_x000D_
+2. Provisioning is enabled [C9306]_x000D_
+3. The group with members already assigned to the App [C9307]_x000D_
+4. Rename app groups to match group name in Okta, flag ENABLED [C9313]_x000D_
+5. Create a group in the target app _x000D_
+_x000D_
+NOTE: _x000D_
+Any group members that you wish to push to the target app MUST be previously provisioned and assigned to the target app.</t>
+  </si>
+  <si>
+    <t>1. Log in to Okta as **Admin**
+2. Go to https:&lt;domain&gt;/admin/dashboard
+3. From the **Dashboard** page, search your application
+4. From the **Application** page, select the **Push Groups** tab
+5. Under **Push Groups** tab, click **Push Groups**
+6. Click **Find groups by name**
+7. Click **Enter a group to push** and enter a name of the group you want to push 
+8. Under **Match result &amp; push action**, select  **Link Group**
+9. Click **Select a group**, search and select a group which exists in your app
+10. Click **Save**
+11. Log in to **Downstream Application** and observe the renamed group</t>
+  </si>
+  <si>
+    <t>The group should be renamed in a target app. All users from the group are assigned in the app to this group, old users still assigned to the group._x000D_
+No additional groups should be created in the third-party app.</t>
+  </si>
+  <si>
+    <t>C9330</t>
+  </si>
+  <si>
+    <t>Verify Push Groups &gt; Link Group &gt;Do Not Rename App Group</t>
+  </si>
+  <si>
+    <t>1. SCIM app is added [C9298]_x000D_
+2. Provisioning is enabled [C9306]_x000D_
+3. The group with members already assigned to the App [C9307]_x000D_
+4. Rename app groups to match group name in Okta, flag DISABLED [C9314]_x000D_
+5. Create a group in the target app _x000D_
+_x000D_
+NOTE: _x000D_
+Any group members that you wish to push to the target app MUST be previously provisioned and assigned to the target app.</t>
+  </si>
+  <si>
+    <t>1. Log in to Okta as **Admin**
+2. Go to https:&lt;domain&gt;/admin/dashboard
+3. From the **Dashboard** page, search your application
+4. From the **Application** page, select the **Push Groups** tab
+5. Under **Push Groups** tab, click **Push Groups**
+6. Click **Find groups by name**
+7. Click **Enter a group to push** and enter a name of the group you want to push 
+8. Under **Match result &amp; push action**, select  **Link Group**
+9. Click **Select a group**, search and select a group which exists in your app
+10. Click **Save**
+11. Log in to **Downstream Application** and observe the group should not be renamed</t>
+  </si>
+  <si>
+    <t>The group should be synced with a group in a target app. The group in the target app should not be renamed. All users from the group are assigned in the app to this group, old users still assigned to the group._x000D_
+No additional groups should be created in the third-party app.</t>
+  </si>
+  <si>
+    <t>C9316</t>
+  </si>
+  <si>
+    <t>Verify Push Groups &gt; Push Now</t>
+  </si>
+  <si>
+    <t>Push Now serves to "force" a push in the rare occurrence when the state of Okta and the target app are no longer in sync. This action performs a full overwrite of the overall membership and makes Okta the master for the group. The exception to this is Active Directory, which only pushes the newest members to the group, and does not overwrite overall membership.</t>
+  </si>
+  <si>
+    <t>C9317</t>
+  </si>
+  <si>
+    <t>Verify Push Groups &gt; Push Empty Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. SCIM app is added [C9298]_x000D_
+2. Provisioning is enabled [C9306]_x000D_
+3. The group without members should be created in OKTA [C9297]_x000D_
+4. Rename app groups to match group name in Okta, flag ENABLED [C9313]_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is an empty group should be created in a target app. </t>
+  </si>
+  <si>
+    <t>C9318</t>
+  </si>
+  <si>
+    <t>Verify Push Groups &gt; Unlink Pushed Group &gt; Delete the group in the target app</t>
+  </si>
+  <si>
+    <t>1. SCIM app is added [C9298]_x000D_
+2. Provisioning is enabled [C9306]_x000D_
+3. The group with members already assigned to the App [C9307]_x000D_
+4. Rename app groups to match group name in Okta, flag ENABLED [C9313]_x000D_
+5. The group already pushed to the target app [C9312]_x000D_
+_x000D_
+NOTE: _x000D_
+Any group members that you wish to push to the target app MUST be previously provisioned and assigned to the target app.</t>
+  </si>
+  <si>
+    <t>1. Log in to Okta as **Admin**_x000D_
+2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
+3. From the **Dashboard** page, search your application_x000D_
+4. From the **Application** page, select the **Push Groups** tab_x000D_
+5. Under **Push Groups** tab, click **Push Groups**_x000D_
+6. Click **Find groups by name**_x000D_
+7. Enter a group to push_x000D_
+8. Under **Match result &amp; push action**, select  **Create Group**_x000D_
+9. Click **Save**_x000D_
+10. Under **Push Groups**, click **Active**_x000D_
+11. Click **Unlink Pusher Group**_x000D_
+12. From the **Unlink Pushed Group** pane, select **Delete the group in the target app (recommended)**_x000D_
+13. Click **Unlink**_x000D_
+10. Log in to **Downstream Application** and observe the group should be deleted</t>
+  </si>
+  <si>
+    <t>This is group should be deleted under **Push Groups** tab and should be deleted in the target app. User accounts will not be deleted.</t>
+  </si>
+  <si>
+    <t>C9321</t>
+  </si>
+  <si>
+    <t>Verify Push Groups &gt; Unlink Pushed Group &gt; Leave the group in the target app</t>
+  </si>
+  <si>
+    <t>1. Log in to Okta as **Admin**
+2. Go to https:&lt;domain&gt;/admin/dashboard
+3. From the **Dashboard** page, search your application
+4. From the **Application** page, select the **Push Groups** tab
+5. Under **Push Groups** tab, click **Push Groups**
+6. Click **Find groups by name**
+7. Enter a group to push
+8. Under **Match result &amp; push action**, select  **Create Group**
+9. Click **Save**
+10. Under **Push Groups**, click **Active**
+11. Click **Unlink Pusher Group**
+12. From the **Unlink Pushed Group** pane, select **Leave the group in the target app**
+13. Click **Unlink**
+14. Log in to **Downstream Application** and observe the group should be deleted</t>
+  </si>
+  <si>
+    <t>This is group should be deleted under Push Groups tab. This is group should be left in the target app. All users are assigned to the group. User accounts will not be deleted.</t>
+  </si>
+  <si>
+    <t>C9322</t>
+  </si>
+  <si>
+    <t>Verify Push Groups &gt; Link Group &gt; After Leave the group in the target app</t>
+  </si>
+  <si>
+    <t>1. SCIM app is added [C9298]_x000D_
+2. Provisioning is enabled [C9306]_x000D_
+3. The group with members already assigned to the App [C9307]_x000D_
+4. Rename app groups to match group name in Okta, flag ENABLED [C9313]_x000D_
+5. The group has been unlinked from the OKTA but left the group in the target app [C9321]_x000D_
+_x000D_
+NOTE: _x000D_
+Any group members that you wish to push to the target app MUST be previously provisioned and assigned to the target app.</t>
+  </si>
+  <si>
+    <t>1. Log in to Okta as **Admin**
+2. Go to https:&lt;domain&gt;/admin/dashboard
+3. From the **Dashboard** page, search your application
+4. From the **Application** page, select the **Push Groups** tab
+5. Under **Push Groups** tab, click **Push Groups**
+6. Click **Find groups by name**
+7. Click **Enter a group to push** and enter a name of the group you want to push 
+8. Under **Match result &amp; push action**, select  **Link Group**
+9. Click **Select a group**, search and select a group which was left in your app after test case number [C9321] 
+10. Click **Save**
+11. Log in to **Downstream Application** and observe the group</t>
+  </si>
+  <si>
+    <t>The synchronization of groups, retaining their appearance in the app. You're able to keep adding new members to the group and those changes will appear in the target app. All old users in the app which linked to the group remain the same place</t>
+  </si>
+  <si>
+    <t>C9319</t>
+  </si>
+  <si>
+    <t>Verify Push Groups &gt; Deactivate Group Push</t>
+  </si>
+  <si>
+    <t>Deactivate group push: pauses the synchronization of groups, retaining their appearance in the app. In this mode, you're able to keep adding new members to the group, but those changes won't appear in the target app.</t>
+  </si>
+  <si>
+    <t>C9320</t>
+  </si>
+  <si>
+    <t>Verify Push Groups &gt; Activate Group Push</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The membership immediately pushed to the group in the target app. </t>
+  </si>
+  <si>
+    <t>C9323</t>
+  </si>
+  <si>
+    <t>Verify Push Groups &gt; Push Groups By Rule</t>
+  </si>
+  <si>
+    <t>1. Log in to Okta as **Admin**_x000D_
+2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
+3. From the **Dashboard** page, search your application_x000D_
+4. From the **Application** page, select the **Push Groups** tab_x000D_
+5. Under **Push Groups** tab, click **Push Groups**_x000D_
+6. Click **Find groups by rule**_x000D_
+7. For the rule name field, enter a rule name_x000D_
+9. For the group name, select **start with** and enter a group name_x000D_
+10. For the group description, select **start with** and enter a description_x000D_
+11. Click **Create Rule**</t>
+  </si>
+  <si>
+    <t>Once created, the rule name is shown under the By rule filter and the found groups are listed under the Group in Okta column and pushed to a downstream application._x000D_
+This group should be created in a target app. All users from the group are assigned in the app to this group.</t>
+  </si>
+  <si>
+    <t>C9324</t>
+  </si>
+  <si>
+    <t>Verify Push Groups &gt; Deactivate Rule</t>
+  </si>
+  <si>
+    <t>1. SCIM app is added [C9298]_x000D_
+2. Provisioning is enabled [C9306]_x000D_
+3. The group with members already assigned to the App [C9307]_x000D_
+4. Rename app groups to match group name in Okta, flag ENABLED [C9313]_x000D_
+5. The rule has been created [C9323]_x000D_
+_x000D_
+NOTE: _x000D_
+Any group members that you wish to push to the target app MUST be previously provisioned and assigned to the target app.</t>
+  </si>
+  <si>
+    <t>1. Log in to Okta as **Admin**_x000D_
+2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
+3. From the **Dashboard** page, search your application_x000D_
+4. From the **Application** page, select the **Push Groups** tab_x000D_
+5. Under **Push Groups** tab, click **Push Groups**_x000D_
+6. Click **Find groups by rule**_x000D_
+7. For the rule name field, enter a rule name_x000D_
+9. For the group name, select **start with** and enter a group name_x000D_
+10. For the group description, select **start with** and enter a description_x000D_
+11. Click **Create Rule**_x000D_
+12. Log in to **Downstream Application** and observe the group is pushed_x000D_
+13. Deactivate specific groups by clicking the **Active**, click **Deactivate Rule** to stop automatically syncing new groups_x000D_
+13. Create a new group in OKTA to match your search expression [C9307]_x000D_
+14. Make sure a new group is not syncing automatically</t>
+  </si>
+  <si>
+    <t>Stop automatically syncing new groups matching your search expression.  Groups previously matched by this rule are unaffected.</t>
+  </si>
+  <si>
+    <t>C9325</t>
+  </si>
+  <si>
+    <t>Verify Push Groups &gt; Delete Rule</t>
+  </si>
+  <si>
+    <t>1. Log in to Okta as **Admin**_x000D_
+2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
+3. From the **Dashboard** page, search your application_x000D_
+4. From the **Application** page, select the **Push Groups** tab_x000D_
+5. Under **Push Groups** tab, click **Push Groups**_x000D_
+6. Click **Find groups by rule**_x000D_
+7. For the rule name field, enter a rule name_x000D_
+9. For the group name, select **start with** and enter a group name_x000D_
+10. For the group description, select **start with** and enter a description_x000D_
+11. Click **Create Rule**_x000D_
+12. Log in to **Downstream Application** and observe the group is pushed_x000D_
+13. From the **Rule** pane, click **Active**_x000D_
+14. Click **Delete Rule**_x000D_
+15. From the **Delete Mapping Rule** pane, select **Delete the associated groups**_x000D_
+16. Click **Delete**_x000D_
+17. Log in to **Downstream Application** and observe the group is being removed</t>
+  </si>
+  <si>
+    <t>Permanently remove the rule and optionally remove pushed groups from a downstream application, found by the rule.</t>
+  </si>
+  <si>
+    <t>C9326</t>
+  </si>
+  <si>
+    <t>Verify Push Groups &gt; Delete Rule &gt;  Leave Associated Groups</t>
+  </si>
+  <si>
+    <t>1. Log in to Okta as **Admin**_x000D_
+2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
+3. From the **Dashboard** page, search your application_x000D_
+4. From the **Application** page, select the **Push Groups** tab_x000D_
+5. Under **Push Groups** tab, click **Push Groups**_x000D_
+6. Click **Find groups by rule**_x000D_
+7. For the rule name field, enter a rule name_x000D_
+9. For the group name, select **start with** and enter a group name_x000D_
+10. For the group description, select **start with** and enter a description_x000D_
+11. Click **Create Rule**_x000D_
+12. Log in to **Downstream Application** and observe the group is pushed_x000D_
+13. From the **Rule** pane, click **Active**_x000D_
+14. Click **Delete Rule**_x000D_
+15. From the **Delete Mapping Rule** pane, select **Leave associated groups**_x000D_
+16. Click **Delete**_x000D_
+17. Log in to **Downstream Application** and observe the group is not being removed</t>
+  </si>
+  <si>
+    <t>Permanently remove the rule from OKTA, remove the group from pushed groups in OKTA but don't remove pushed groups from a downstream application.</t>
+  </si>
+  <si>
+    <t>C9327</t>
+  </si>
+  <si>
+    <t>Verify Push Groups &gt;Bulk Edit &gt; Delete</t>
+  </si>
+  <si>
+    <t>1. Log in to Okta as **Admin**_x000D_
+2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
+3. From the **Dashboard** page, search your application_x000D_
+4. From the **Application** page, select the **Push Groups** tab_x000D_
+5. Under **Push Groups** tab, click **Push Groups**_x000D_
+6. Click **Find groups by name**_x000D_
+7. Enter a group to push_x000D_
+8. Under **Match result &amp; push action**, select  **Create Group**_x000D_
+9. Click **Save and Add Another**_x000D_
+11. Find and Add one more group, make sure groups have been created and pushed to a target application_x000D_
+12. Under **Push Groups**, click **Bulk Edit**_x000D_
+13. Select several groups to delete_x000D_
+14. Click **Delete** button_x000D_
+15. From the **Unlink Pushed Group** pane, select **Delete the group in the target app (recommended)**_x000D_
+16. Click **Unlink**_x000D_
+17. Log in to **Downstream Application** and observe the groups should be deleted</t>
+  </si>
+  <si>
+    <t>The groups should be deleted under **Push Groups** tab and should be deleted in the target app. User accounts will not be deleted.</t>
+  </si>
+  <si>
+    <t>C9331</t>
+  </si>
+  <si>
+    <t>Verify Push Groups &gt;Bulk Edit &gt; Delete &gt; Leave Associated Groups</t>
+  </si>
+  <si>
+    <t>1. Log in to Okta as **Admin**_x000D_
+2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
+3. From the **Dashboard** page, search your application_x000D_
+4. From the **Application** page, select the **Push Groups** tab_x000D_
+5. Under **Push Groups** tab, click **Push Groups**_x000D_
+6. Click **Find groups by name**_x000D_
+7. Enter a group to push_x000D_
+8. Under **Match result &amp; push action**, select  **Create Group**_x000D_
+9. Click **Save and Add Another**_x000D_
+11. Find and Add one more group, make sure groups have been created and pushed to a target application_x000D_
+12. Under **Push Groups**, click **Bulk Edit**_x000D_
+13. Select several groups to delete_x000D_
+14. Click **Delete** button_x000D_
+15. From the **Unlink Pushed Group** pane, select **Leave the group in the target app**_x000D_
+16. Click **Unlink**_x000D_
+17. Log in to **Downstream Application** and observe the groups should not be deleted</t>
+  </si>
+  <si>
+    <t>The groups should be deleted under **Push Groups** tab and should not be deleted in the target app. User accounts will not be deleted.</t>
+  </si>
+  <si>
+    <t>C9328</t>
+  </si>
+  <si>
+    <t>Verify Push Groups &gt;Bulk Edit &gt; Deactivate</t>
+  </si>
+  <si>
+    <t>C9329</t>
+  </si>
+  <si>
+    <t>Verify Push Groups &gt;Bulk Edit &gt; Activate</t>
+  </si>
+  <si>
+    <t>1. SCIM app is added [C9298]_x000D_
+2. Provisioning is enabled [C9306]_x000D_
+3. The group with members already assigned to the App [C9307]_x000D_
+4. Rename app groups to match group name in Okta, flag ENABLED [C9313]_x000D_
+5. The group already pushed to the target app [C9312]_x000D_
+6. Deactivate groups [C9328]_x000D_
+_x000D_
+NOTE: _x000D_
+Any group members that you wish to push to the target app MUST be previously provisioned and assigned to the target app.</t>
+  </si>
+  <si>
+    <t>The memberships immediately pushed to the group in the target app.</t>
+  </si>
+  <si>
+    <t>C9332</t>
+  </si>
+  <si>
+    <t>Verify Push Groups &gt;Add Members As Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to Okta as **Admin**_x000D_
+2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
+3. From the **Dashboard** page, search your application_x000D_
+4. From the **Application** page, select the **Push Groups** tab_x000D_
+5. Under **Push Groups** tab, click **Push Groups**_x000D_
+6. Click **Find groups by name**_x000D_
+7. Enter a group to push_x000D_
+8. Under **Match result &amp; push action**, select  **Create Group**_x000D_
+9. Click **Save**_x000D_
+10. Log in to **Downstream Application** and observe the created group_x000D_
+11. From the **Push Groups** tab, click an end group's name_x000D_
+12. From the **Group Edit** page, click **Add members**_x000D_
+13. From the **Add Members to &lt;Your Group Name&gt;** pane, search required member_x000D_
+14. From the **Add Members to &lt;Your Group Name&gt;** pane, click **Add**_x000D_
+15. From the **Add Members to &lt;Your Group Name&gt;** pane, click **Done**_x000D_
+16. Log in to **Downstream Application** and observe, the user should be added to a group_x000D_
+</t>
+  </si>
+  <si>
+    <t>This group should be created in a target app. _x000D_
+All users from the group are assigned in the app to this group. _x000D_
+All additional user should be added to the application_x000D_
+_x000D_
+_x000D_
+NOTE: While Group Push adds these groups to third-party apps, it does not create groups in Okta.</t>
+  </si>
+  <si>
+    <t>C9333</t>
+  </si>
+  <si>
+    <t>Verify Push Groups &gt; Remove Members From Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to Okta as **Admin**_x000D_
+2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
+3. From the **Dashboard** page, search your application_x000D_
+4. From the **Application** page, select the **Push Groups** tab_x000D_
+5. Under **Push Groups** tab, click **Push Groups**_x000D_
+6. Click **Find groups by name**_x000D_
+7. Enter a group to push_x000D_
+8. Under **Match result &amp; push action**, select  **Create Group**_x000D_
+9. Click **Save**_x000D_
+10. Log in to **Downstream Application** and observe the created group and provisioned members _x000D_
+11. From the **Push Groups** tab, click an end group's name_x000D_
+12. From the **Group Edit** page, remove a member to click **X** icon_x000D_
+13. From the **Unassign User** pane, click **OK**_x000D_
+14. Log in to **Downstream Application** and observe the user should be unassigned from group_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t>The user has been unassigned from a group and removed from the application because as it was assigned as a group assignment</t>
+  </si>
+  <si>
+    <t>C21902</t>
+  </si>
+  <si>
+    <t>Verify OAUTH2 using NOT white-listed redirect URIs</t>
+  </si>
+  <si>
+    <t>SCIM app is added C9298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to Okta as Admin
+2. Go to https:&lt;domain&gt;/admin/dashboard
+3. From the Dashboard page, search for your application
+4. From the Application page, select the Provisioning tab
+5. From Settings, click on API Integration
+6. Click on Configure API Integration
+7. Click on the Enable API integration check-box
+8. Click on Authenticate with your app
+9. You will be redirected to the login page, which prompts you to enter your credentials
+9.1 Change the callback URI to a blacklisted URI. For example:
+https://ct1-bootstrap.clouditude.com/admin/app/cpc/%7BappName%7D/oauth/callback
+10. You will be asked to confirm access to your OKTA account
+11. You will then be redirected back to OKTA and will receive an error.
+</t>
+  </si>
+  <si>
+    <t>Any URI that is not white-listed  will not go through and will not result in a successful authentication. It will close after you update</t>
+  </si>
+  <si>
+    <t>If you select the Send user activation email now check box, your end user immediately receives their Welcome to Okta! activation email. Otherwise, these users are at Pending Activation status and are not notified via email of their Okta account.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. From the **Group** page, click **Add Group**
+2. From the **Add Group** pane, enter **Name** and **Description** of the Group
+3. Click  **Add Group**
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. From the **People** page, click **Add Person**.
+2. Enter the **First name** and **Last name.**
+3. Enter the **Username.**
+4. The user name must be in email address format, and is typically the user's primary email address. Users sign in using this username.
+5. Enter a **Primary email** address.
+6. Click **Save**, or add another by clicking **Save and Add Another**.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. From the **Group** page, search out a required group
+2. Click an end group's name
+3. From the **Group edit** page, click **Manage People**
+4. From the **Not Members** pane, search out a required member
+5. Click their name or the **+** icon to add them to the Members pane
+6. Click **Save**
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to Okta as Admin 
+2. Go to https:&lt;domain&gt;/admin/dashboard
+3. From the **Dashboard** page, search your application 
+4. From the **Application page**, select **Provisioning tab**
+5. From the **Settings**, click **Integration**
+6. Click **Configure API Integration**
+7. Click **Enable API integration** check-box
+8. Enter Base Url and token according to a configuration guide
+9. Click **Save**
+10. From the **Settings**, click **To App**
+11. Click **Edit**
+12. Enable features (e.g Create Users)
+13. Click **Save**
+</t>
+  </si>
+  <si>
+    <t>1. Log in to Okta as Admin 
+2. Go to https:&lt;domain&gt;/admin/dashboard
+3. From the **Dashboard** page, search your application 
+4. From the **Application page**, select **Provisioning tab**
+5. From the **Settings**, click **API Integration**
+6. Click **Configure API Integration**
+7. Click **Enable API integration** check-box
+8. Enter Base Url and token according to a configuration guide
+9. Click **Save**
+10. Click **Assignment** tab and a member to app [C9290]
+11. From the **Settings**, click **Integration**
+12. Click **Edit**
+13. Remove a tick from ** Enable API integration** check-box
+14. Click **Save**
+16. From the **Assignment** tab, click the edit icon
+17. Update attributes 
+18. Click **Save** changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to Okta as Admin 
+2. Go to https:&lt;domain&gt;/admin/dashboard
+3. From the **Dashboard** page, search your application 
+4. From the **Application page**, select **Provisioning tab**
+5. From the **Settings**, click **Integration**
+6. Click **Configure API Integration**
+7. Click **Enable API integration** check-box
+8. Enter incorrect userUrl or token
+9. Click **Save**
+</t>
+  </si>
+  <si>
+    <t>1. Log in to Okta as Admin 
+2. Go to https:&lt;domain&gt;/admin/dashboard
+3. From the **Dashboard** page, search your application 
+4. From the **Application page**, select **Provisioning tab**
+5. From the **Settings**, click **API Integration**
+6. Click **Configure API Integration**
+7. Click **Enable API integration** check-box
+8. Enter a new token
+9. Click **Save**</t>
+  </si>
+  <si>
+    <t>1. Log in to Okta as Admin 
+2. Go to https:&lt;domain&gt;/admin/dashboard
+3. From the **Dashboard** page, search your application 
+4. From the **Application page**, select **Provisioning tab**
+5. From the **Settings**, click **Integration**
+6. Click **Configure API Integration**
+7. Click **Enable API integration** check-box
+8. Enter Base Url and token according to a configuration guide
+9. Click **Save**
+10. From the **Settings**, click **To App**
+11. Click **Edit**
+12. Enable features (e.g Create Users)
+13. Click **Save**
+14. From the **Application** page, click **Sign On** tab
+15. From the **Settings** pane, click **Edit** and select **Secure Web Authentication**
+16. Click **Save**
+17. From the **Application** page, select the Assignment Tab &gt; Assign Button &gt; Assign to People
+18. From the **Assign &lt;Your App Name&gt; to People** pane, search an already created user (C9296) 
+19. Click **Assign** and submit required attributes
+20. Click **Save and Go Back**
+21. Click **Done**
+22. Observe email for the assigned user and complete registration
+23. Log in to **OKTA** as an assigned user, utilize chiclet</t>
+  </si>
+  <si>
+    <t>1. Log in to Okta as Admin 
+2. Go to https:&lt;domain&gt;/admin/dashboard
+3. From the **Dashboard** page, search your application 
+4. From the **Application page**, select **Provisioning tab**
+5. From the **Settings**, click **Integration**
+6. Click **Configure API Integration**
+7. Click **Enable API integration** check-box
+8. Enter userUrl or token according to a configuration guide
+9. Click **Save**
+10. From the **Settings**, click **To App**
+11. Click **Edit**
+12. Enable features (e.g Create Users)
+13. Click **Save**
+14. From the **Application** page, click **Sign On** tab
+15. From the **Settings** pane, click **Edit** and select **SAML 2.0**, configure SAML according to  the guide **View Setup Instructions**
+16. Click **Save**
+17. From the **Application** page, select the Assignment Tab &gt; Assign Button &gt; Assign to People
+18. From the **Assign &lt;Your App Name&gt; to People** pane, search an already created user (C9296) 
+19. Click **Assign** and submit required attributes
+20. Click **Save and Go Back**
+21. Click **Done**
+22. Observe email for the assigned user and complete registration
+23. Log in to **OKTA** as an assigned user, utilize chiclet</t>
+  </si>
+  <si>
+    <t>Verify mapping according to your configuration</t>
+  </si>
+  <si>
+    <t>1. Log in to Okta as **Admin** 
+2. Go to https:&lt;domain&gt;/admin/dashboard
+3. From the **Dashboard** page, search your application 
+4. From the **Application** page, select **Provisioning** tab
+5. Under **Provisioning** tab select **Settings**
+6. Click **Integration**
+7. Click **&lt;Your App Name&gt;: Configuration Guide**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Config guide should be available by the link
+All screenshots should contain Up To Date user interface - NOT DRAFT
+All steps should be clear
+The configuration guide should contain the following headlines: Supported Features, Requirements, Configuration Steps, Attributes and Mapping, Known Issues/Troubleshooting and Tips
+NOTE: For Known Issues/Troubleshooting and Tips - Leave N/A if you have nothing to add right now.
+Examples:
+https://docs.h5mag.com/advanced-features/okta-integration
+http://sharpr.com/home/how-to-configure-provisioning-for-sharpr/
+ </t>
+  </si>
+  <si>
+    <t>1. Log in to Okta as **Admin**
+2. Go to https:&lt;domain&gt;/admin/dashboard
+3. From the **Dashboard** page, search your application
+4. From the **Application** page, select the Assignments Tab &gt; Assign Button &gt; Assign to People
+5. From the **Assign &lt;Your App Name&gt; to People** pane, search an already created user (C9296) 
+6. Click **Assign** and submit required attributes
+7. Click **Save and Go Back**
+8. Click **Done**
+9. Log in to **Downstream Application** and observe the assigned user</t>
+  </si>
+  <si>
+    <t>1. Log in to Okta as **Admin**
+2. Go to https:&lt;domain&gt;/admin/dashboard
+3. From the **Dashboard** page, search your application
+4. From the **Application** page, select the Assignments Tab &gt; Assign Button &gt; Assign to People
+5. From the **Assign &lt;Your App Name&gt; to People** pane, search an already created user (C9296), the same user already created in an application
+6. Click **Assign**
+7. Click **Save and Go Back**
+8. Click **Done**
+9. Log in to **Downstream Application** and observe the member from okta should be linked with member from application</t>
+  </si>
+  <si>
+    <t>1. Log in to Okta as **Admin**
+2. Go to Directory &gt; People.
+3. Search User [C9296]  and click an end user's name.
+4. From the **Profile Page** page, click **Profile**
+5. Click **Edit**
+6. Update all attributes
+7. Click **Save** 
+8. Go to https:&lt;domain&gt;/admin/dashboard
+3. From the **Dashboard** page, search your application
+4. From the **Application** page, select the Assignments Tab &gt; Assign Button &gt; Assign to People
+5. From the **Assign &lt;Your App Name&gt; to People** pane, search an already created and updated user (C9296) 
+6. Click **Assign**
+7. Click **Save and Go Back**
+8. Click **Done**
+9. Log in to **Downstream Application** and observe the assigned user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This removes the group and users from assignment tab. All users from this group will be removed or deactivated in the app. 
+(NOTE: If app does not support DELETE, The end users are listed as Deactivated under the Status column in App)
+</t>
+  </si>
+  <si>
+    <t>1. Log in to Okta as **Admin**
+2. Go to https:&lt;domain&gt;/admin/dashboard
+3. From the **Dashboard** page, search your application
+4. From the **Application** page, select the **Push Groups** tab
+5. Under **Push Groups**, click **Bulk Edit**
+6. Select the group is in Inactive status
+7. From the **Bulk Edit** pane, click **Activate**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to Okta as **Admin**
+2. Go to https:&lt;domain&gt;/admin/dashboard
+3. From the **Dashboard** page, search your application
+4. From the **Application** page, select the **Push Groups** tab
+5. Under **Push Groups** tab, click **Push Groups**
+6. Click **Find groups by name**
+7. Enter a group to push
+8. Under **Match result &amp; push action**, select  **Create Group**
+9. Click **Save and Add Another**
+11. Add one more group, make sure groups created and pushed to the application
+12. Under **Push Groups**, click **Bulk Edit**
+13. Select groups to deactivate
+12. Click **Deactivate** button
+</t>
+  </si>
+  <si>
+    <t>1. Log in to Okta as **Admin** _x000D_
+2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
+3. From the **Dashboard** page, search your application _x000D_
+4. From the **Application** page, select **Provisioning** tab_x000D_
+5. Under **Provisioning** tab select **Settings**_x000D_
+6. Click **To App**_x000D_
+7. Scroll to  **Profile Editor**_x000D_
+8. Observe **Attribute type**</t>
+  </si>
+  <si>
+    <t>OKTA is able to master attributes like first name, last name, phone employee and so on.  Very attributes mapping between OKTA and downstream application. The whole list of attributes should be listed in configuration guide</t>
+  </si>
+  <si>
+    <t>1. Log in to Okta as Admin _x000D_
+2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
+3. From the **Dashboard**, search your application _x000D_
+4. From the **Application** page,  select **Assignments tab**_x000D_
+6. Under **Assignments tab**, click an end user's name._x000D_
+7. From the **User Profile** page, click **More Actions**_x000D_
+8. Click **Suspend**_x000D_
+9. Go to the target app _x000D_
+10. Observe the user</t>
   </si>
   <si>
     <t>1. Log in to Okta as **Admin** _x000D_
@@ -784,266 +1609,10 @@
 18. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
 19. From the **Dashboard** page, search your application _x000D_
 20. From the **Application** page, select **Assignments** tab_x000D_
-21. Unders **Assignments** tab, click an end user's name_x000D_
+21. Under **Assignments** tab, click an end user's name_x000D_
 22. From the **Profile User** page, click **Reset Password**_x000D_
 23. Follow the instruction from email to reset a password_x000D_
 24. Log in to **Downstream Application**, use the new password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okta sets the user’s password or user sets a new password it depends on a configuration. The user should be able to log in to the application using a new password. _x000D_
-The user should not be able to log in to a downstream application using an old password. </t>
-  </si>
-  <si>
-    <t>C9291</t>
-  </si>
-  <si>
-    <t>Verify User Attribute Update</t>
-  </si>
-  <si>
-    <t>Update Users</t>
-  </si>
-  <si>
-    <t>1. Log in to Okta as **Admin** _x000D_
-2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
-3. From the **Dashboard** page, search your application _x000D_
-4. From the Application page, select **Assignments tab**_x000D_
-5. Under **Assignments tab**, click the edit icon of an assigned user_x000D_
-6. From the **Edit User Assignment** pane, edit/update all available attributes (for example firstName and lastName etc.)_x000D_
-7. Click **Save**_x000D_
-8. Go to the target app _x000D_
-9. Observe the user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update the downstream user’s attributes when the Okta user is updated. </t>
-  </si>
-  <si>
-    <t>C9310</t>
-  </si>
-  <si>
-    <t>Verify Update User Attributes from User Profile</t>
-  </si>
-  <si>
-    <t>1. Log in to Okta as **Admin** _x000D_
-2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
-3. From the **Dashboard** page, search your application _x000D_
-4. From the **Application** page, select **Assignments** tab_x000D_
-5. Under **Assignments** tab,  from **Filters**_x000D_
-6. Click **People**_x000D_
-7. Click an end user's name_x000D_
-8. From the **User Profile** page, click **Profile** tab_x000D_
-9. Click **Edit**_x000D_
-10. Update mapped attributes_x000D_
-11. Click **Save**</t>
-  </si>
-  <si>
-    <t>The user should be updated in a downstream application based on values derived from the Okta user profile.</t>
-  </si>
-  <si>
-    <t>C9309</t>
-  </si>
-  <si>
-    <t>Verify Update For User Group Attributes</t>
-  </si>
-  <si>
-    <t>1. Log in to Okta as **Admin** _x000D_
-2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
-3. From the **Dashboard** page, search your application _x000D_
-4. From the **Application** page, select **Assignments** tab_x000D_
-5. Under **Assignments** tab,  click **Filters**_x000D_
-6. Click **Groups**_x000D_
-7. Click the pencil icon to edit the group_x000D_
-8. From the **Edit Group Assignment** pane, modify group attributes_x000D_
-9. Click **Save**</t>
-  </si>
-  <si>
-    <t>The users from the group should be updated in a downstream application based on values derived from the Okta group assignment.</t>
-  </si>
-  <si>
-    <t>C9337</t>
-  </si>
-  <si>
-    <t>Verify Update To Push Empty Values</t>
-  </si>
-  <si>
-    <t>1. Log in to Okta as **Admin** _x000D_
-2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
-3. From the **Dashboard** page, search your application _x000D_
-4. From the **Application** page, select **Assignments** tab_x000D_
-5. Under **Assignments** tab,  click **Filters**_x000D_
-6. Click **Groups**_x000D_
-7. Click the pencil icon to edit the group_x000D_
-8. From the **Edit Group Assignment** pane, erase group attributes_x000D_
-9. Click **Save**</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No errors encountered because of empty values</t>
-  </si>
-  <si>
-    <t>C9312</t>
-  </si>
-  <si>
-    <t>Verify Push Groups &gt; Create Group</t>
-  </si>
-  <si>
-    <t>Using Group Push</t>
-  </si>
-  <si>
-    <t>1. SCIM app is added [C9298]_x000D_
-2. Provisioning is enabled [C9306]_x000D_
-3. The group with members already assigned to the App [C9307]_x000D_
-4. Rename app groups to match group name in Okta, flag ENABLED [C9313]_x000D_
-_x000D_
-NOTE: _x000D_
-Any group members that you wish to push to the target app MUST be previously provisioned and assigned to the target app.</t>
-  </si>
-  <si>
-    <t>1. Log in to Okta as **Admin**_x000D_
-2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
-3. From the **Dashboard** page, search your application_x000D_
-4. From the **Application** page, select the **Push Groups** tab_x000D_
-5. Under **Push Groups** tab, click **Push Groups**_x000D_
-6. Click **Find groups by name**_x000D_
-7. Enter a group to push_x000D_
-8. Under **Match result &amp; push action**, select  **Create Group**_x000D_
-9. Click **Save**_x000D_
-10. Log in to **Downstream Application** and observe the created group</t>
-  </si>
-  <si>
-    <t>This group should be created in a target app. This is group push without enhanced functionality. All users from the group are assigned in the app to this group. _x000D_
-_x000D_
-NOTE: While Group Push adds these groups to third-party apps, it does not create groups in Okta.</t>
-  </si>
-  <si>
-    <t>C9315</t>
-  </si>
-  <si>
-    <t>Verify Push Groups &gt; Link Group &gt;Rename App Group</t>
-  </si>
-  <si>
-    <t>1. SCIM app is added [C9298]_x000D_
-2. Provisioning is enabled [C9306]_x000D_
-3. The group with members already assigned to the App [C9307]_x000D_
-4. Rename app groups to match group name in Okta, flag ENABLED [C9313]_x000D_
-5. Create a group in the target app _x000D_
-_x000D_
-NOTE: _x000D_
-Any group members that you wish to push to the target app MUST be previously provisioned and assigned to the target app.</t>
-  </si>
-  <si>
-    <t>1. Log in to Okta as **Admin**
-2. Go to https:&lt;domain&gt;/admin/dashboard
-3. From the **Dashboard** page, search your application
-4. From the **Application** page, select the **Push Groups** tab
-5. Under **Push Groups** tab, click **Push Groups**
-6. Click **Find groups by name**
-7. Click **Enter a group to push** and enter a name of the group you want to push 
-8. Under **Match result &amp; push action**, select  **Link Group**
-9. Click **Select a group**, search and select a group which exists in your app
-10. Click **Save**
-11. Log in to **Downstream Application** and observe the renamed group</t>
-  </si>
-  <si>
-    <t>The group should be renamed in a target app. All users from the group are assigned in the app to this group, old users still assigned to the group._x000D_
-No additional groups should be created in the third-party app.</t>
-  </si>
-  <si>
-    <t>C9330</t>
-  </si>
-  <si>
-    <t>Verify Push Groups &gt; Link Group &gt;Do Not Rename App Group</t>
-  </si>
-  <si>
-    <t>1. SCIM app is added [C9298]_x000D_
-2. Provisioning is enabled [C9306]_x000D_
-3. The group with members already assigned to the App [C9307]_x000D_
-4. Rename app groups to match group name in Okta, flag DISABLED [C9314]_x000D_
-5. Create a group in the target app _x000D_
-_x000D_
-NOTE: _x000D_
-Any group members that you wish to push to the target app MUST be previously provisioned and assigned to the target app.</t>
-  </si>
-  <si>
-    <t>1. Log in to Okta as **Admin**
-2. Go to https:&lt;domain&gt;/admin/dashboard
-3. From the **Dashboard** page, search your application
-4. From the **Application** page, select the **Push Groups** tab
-5. Under **Push Groups** tab, click **Push Groups**
-6. Click **Find groups by name**
-7. Click **Enter a group to push** and enter a name of the group you want to push 
-8. Under **Match result &amp; push action**, select  **Link Group**
-9. Click **Select a group**, search and select a group which exists in your app
-10. Click **Save**
-11. Log in to **Downstream Application** and observe the group should not be renamed</t>
-  </si>
-  <si>
-    <t>The group should be synced with a group in a target app. The group in the target app should not be renamed. All users from the group are assigned in the app to this group, old users still assigned to the group._x000D_
-No additional groups should be created in the third-party app.</t>
-  </si>
-  <si>
-    <t>C9316</t>
-  </si>
-  <si>
-    <t>Verify Push Groups &gt; Push Now</t>
-  </si>
-  <si>
-    <t>Push Now serves to "force" a push in the rare occurrence when the state of Okta and the target app are no longer in sync. This action performs a full overwrite of the overall membership and makes Okta the master for the group. The exception to this is Active Directory, which only pushes the newest members to the group, and does not overwrite overall membership.</t>
-  </si>
-  <si>
-    <t>C9317</t>
-  </si>
-  <si>
-    <t>Verify Push Groups &gt; Push Empty Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. SCIM app is added [C9298]_x000D_
-2. Provisioning is enabled [C9306]_x000D_
-3. The group without members should be created in OKTA [C9297]_x000D_
-4. Rename app groups to match group name in Okta, flag ENABLED [C9313]_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is an empty group should be created in a target app. </t>
-  </si>
-  <si>
-    <t>C9318</t>
-  </si>
-  <si>
-    <t>Verify Push Groups &gt; Unlink Pushed Group &gt; Delete the group in the target app</t>
-  </si>
-  <si>
-    <t>1. SCIM app is added [C9298]_x000D_
-2. Provisioning is enabled [C9306]_x000D_
-3. The group with members already assigned to the App [C9307]_x000D_
-4. Rename app groups to match group name in Okta, flag ENABLED [C9313]_x000D_
-5. The group already pushed to the target app [C9312]_x000D_
-_x000D_
-NOTE: _x000D_
-Any group members that you wish to push to the target app MUST be previously provisioned and assigned to the target app.</t>
-  </si>
-  <si>
-    <t>1. Log in to Okta as **Admin**_x000D_
-2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
-3. From the **Dashboard** page, search your application_x000D_
-4. From the **Application** page, select the **Push Groups** tab_x000D_
-5. Under **Push Groups** tab, click **Push Groups**_x000D_
-6. Click **Find groups by name**_x000D_
-7. Enter a group to push_x000D_
-8. Under **Match result &amp; push action**, select  **Create Group**_x000D_
-9. Click **Save**_x000D_
-10. Under **Push Groups**, click **Active**_x000D_
-11. Click **Unlink Pusher Group**_x000D_
-12. From the **Unlink Pushed Group** pane, select **Delete the group in the target app (recommended)**_x000D_
-13. Click **Unlink**_x000D_
-10. Log in to **Downstream Application** and observe the group should be deleted</t>
-  </si>
-  <si>
-    <t>This is group should be deleted under **Push Groups** tab and should be deleted in the target app. User accounts will not be deleted.</t>
-  </si>
-  <si>
-    <t>C9321</t>
-  </si>
-  <si>
-    <t>Verify Push Groups &gt; Unlink Pushed Group &gt; Leave the group in the target app</t>
   </si>
   <si>
     <t>1. Log in to Okta as **Admin**
@@ -1055,52 +1624,11 @@
 7. Enter a group to push
 8. Under **Match result &amp; push action**, select  **Create Group**
 9. Click **Save**
-10. Under **Push Groups**, click **Active**
-11. Click **Unlink Pusher Group**
-12. From the **Unlink Pushed Group** pane, select **Leave the group in the target app**
-13. Click **Unlink**
-14. Log in to **Downstream Application** and observe the group should be deleted</t>
-  </si>
-  <si>
-    <t>This is group should be deleted under Push Groups tab. This is group should be left in the target app. All users are assigned to the group. User accounts will not be deleted.</t>
-  </si>
-  <si>
-    <t>C9322</t>
-  </si>
-  <si>
-    <t>Verify Push Groups &gt; Link Group &gt; After Leave the group in the target app</t>
-  </si>
-  <si>
-    <t>1. SCIM app is added [C9298]_x000D_
-2. Provisioning is enabled [C9306]_x000D_
-3. The group with members already assigned to the App [C9307]_x000D_
-4. Rename app groups to match group name in Okta, flag ENABLED [C9313]_x000D_
-5. The group has been unlinked from the OKTA but left the group in the target app [C9321]_x000D_
-_x000D_
-NOTE: _x000D_
-Any group members that you wish to push to the target app MUST be previously provisioned and assigned to the target app.</t>
-  </si>
-  <si>
-    <t>1. Log in to Okta as **Admin**
-2. Go to https:&lt;domain&gt;/admin/dashboard
-3. From the **Dashboard** page, search your application
-4. From the **Application** page, select the **Push Groups** tab
-5. Under **Push Groups** tab, click **Push Groups**
-6. Click **Find groups by name**
-7. Click **Enter a group to push** and enter a name of the group you want to push 
-8. Under **Match result &amp; push action**, select  **Link Group**
-9. Click **Select a group**, search and select a group which was left in your app after test case number [C9321] 
-10. Click **Save**
-11. Log in to **Downstream Application** and observe the group</t>
-  </si>
-  <si>
-    <t>The synchronization of groups, retaining their appearance in the app. You're able to keep adding new members to the group and those changes will appear in the target app. All old users in the app which linked to the group remain the same place</t>
-  </si>
-  <si>
-    <t>C9319</t>
-  </si>
-  <si>
-    <t>Verify Push Groups &gt; Deactivate Group Push</t>
+10. From the **Push Groups** tab, click **Active**
+11. Log in to **Downstream Application** and observe the created group
+12. From the **Downstream application** add several new members to the group, members should not be provisioned from OKTA
+13. From the **Push Groups** tab in OKTA, click **Active**
+114. Click *Push Now**</t>
   </si>
   <si>
     <t>1. Log in to Okta as **Admin**
@@ -1117,20 +1645,11 @@
 12. Under **Group in Okta**, click an end group's name
 13. From the **Group Profile**, click **People**
 14. Click **Add Members**
-15. From the **Add Members to EmptyGroup** pane, search a member
-16. From the **Add Members to EmptyGroup** pane, click **Add**
-17. From the **Add Members to EmptyGroup** pane, click **Done**
+15. From the **Add Members to Empty Group** pane, search a member
+16. From the **Add Members to Empty Group** pane, click **Add**
+17. From the **Add Members to Empty Group** pane, click **Done**
 18. The person has been added to the group but not pushed to the App.
 19. Log in to **Downstream Application** and observe the new member was not added to the group in app</t>
-  </si>
-  <si>
-    <t>Deactivate group push: pauses the synchronization of groups, retaining their appearance in the app. In this mode, you're able to keep adding new members to the group, but those changes won't appear in the target app.</t>
-  </si>
-  <si>
-    <t>C9320</t>
-  </si>
-  <si>
-    <t>Verify Push Groups &gt; Activate Group Push</t>
   </si>
   <si>
     <t>1. Log in to Okta as **Admin**_x000D_
@@ -1147,536 +1666,16 @@
 12. Under **Group in Okta**, click an end group's name_x000D_
 13. From the **Group Profile**, click **People**_x000D_
 14. Click **Add Members**_x000D_
-15. From the **Add Members to EmptyGroup** pane, search a member_x000D_
-16. From the **Add Members to EmptyGroup** pane, click **Add**_x000D_
-17. From the **Add Members to EmptyGroup** pane, click **Done**_x000D_
+15. From the **Add Members to Empty Group** pane, search a member_x000D_
+16. From the **Add Members to Empty Group** pane, click **Add**_x000D_
+17. From the **Add Members to Empty Group** pane, click **Done**_x000D_
 18. The person has been added to the group but not pushed to the App._x000D_
 19. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
 20. From the **Dashboard** page, search your application_x000D_
 21. From the **Application** page, select the **Push Groups** tab_x000D_
 22. Under **Push Groups** tab, click **Inactive**_x000D_
 23. Click **Activate Group Push**, to start pushing group members_x000D_
-24. Log in to **Downstream Application** and observe the new member should be pushed to the group in app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The membership immediately pushed to the group in the target app. </t>
-  </si>
-  <si>
-    <t>C9323</t>
-  </si>
-  <si>
-    <t>Verify Push Groups &gt; Push Groups By Rule</t>
-  </si>
-  <si>
-    <t>1. Log in to Okta as **Admin**_x000D_
-2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
-3. From the **Dashboard** page, search your application_x000D_
-4. From the **Application** page, select the **Push Groups** tab_x000D_
-5. Under **Push Groups** tab, click **Push Groups**_x000D_
-6. Click **Find groups by rule**_x000D_
-7. For the rule name field, enter a rule name_x000D_
-9. For the group name, select **start with** and enter a group name_x000D_
-10. For the group description, select **start with** and enter a description_x000D_
-11. Click **Create Rule**</t>
-  </si>
-  <si>
-    <t>Once created, the rule name is shown under the By rule filter and the found groups are listed under the Group in Okta column and pushed to a downstream application._x000D_
-This group should be created in a target app. All users from the group are assigned in the app to this group.</t>
-  </si>
-  <si>
-    <t>C9324</t>
-  </si>
-  <si>
-    <t>Verify Push Groups &gt; Deactivate Rule</t>
-  </si>
-  <si>
-    <t>1. SCIM app is added [C9298]_x000D_
-2. Provisioning is enabled [C9306]_x000D_
-3. The group with members already assigned to the App [C9307]_x000D_
-4. Rename app groups to match group name in Okta, flag ENABLED [C9313]_x000D_
-5. The rule has been created [C9323]_x000D_
-_x000D_
-NOTE: _x000D_
-Any group members that you wish to push to the target app MUST be previously provisioned and assigned to the target app.</t>
-  </si>
-  <si>
-    <t>1. Log in to Okta as **Admin**_x000D_
-2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
-3. From the **Dashboard** page, search your application_x000D_
-4. From the **Application** page, select the **Push Groups** tab_x000D_
-5. Under **Push Groups** tab, click **Push Groups**_x000D_
-6. Click **Find groups by rule**_x000D_
-7. For the rule name field, enter a rule name_x000D_
-9. For the group name, select **start with** and enter a group name_x000D_
-10. For the group description, select **start with** and enter a description_x000D_
-11. Click **Create Rule**_x000D_
-12. Log in to **Downstream Application** and observe the group is pushed_x000D_
-13. Deactivate specific groups by clicking the **Active**, click **Deactivate Rule** to stop automatically syncing new groups_x000D_
-13. Create a new group in OKTA to match your search expression [C9307]_x000D_
-14. Make sure a new group is not syncing automatically</t>
-  </si>
-  <si>
-    <t>Stop automatically syncing new groups matching your search expression.  Groups previously matched by this rule are unaffected.</t>
-  </si>
-  <si>
-    <t>C9325</t>
-  </si>
-  <si>
-    <t>Verify Push Groups &gt; Delete Rule</t>
-  </si>
-  <si>
-    <t>1. Log in to Okta as **Admin**_x000D_
-2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
-3. From the **Dashboard** page, search your application_x000D_
-4. From the **Application** page, select the **Push Groups** tab_x000D_
-5. Under **Push Groups** tab, click **Push Groups**_x000D_
-6. Click **Find groups by rule**_x000D_
-7. For the rule name field, enter a rule name_x000D_
-9. For the group name, select **start with** and enter a group name_x000D_
-10. For the group description, select **start with** and enter a description_x000D_
-11. Click **Create Rule**_x000D_
-12. Log in to **Downstream Application** and observe the group is pushed_x000D_
-13. From the **Rule** pane, click **Active**_x000D_
-14. Click **Delete Rule**_x000D_
-15. From the **Delete Mapping Rule** pane, select **Delete the associated groups**_x000D_
-16. Click **Delete**_x000D_
-17. Log in to **Downstream Application** and observe the group is being removed</t>
-  </si>
-  <si>
-    <t>Permanently remove the rule and optionally remove pushed groups from a downstream application, found by the rule.</t>
-  </si>
-  <si>
-    <t>C9326</t>
-  </si>
-  <si>
-    <t>Verify Push Groups &gt; Delete Rule &gt;  Leave Associated Groups</t>
-  </si>
-  <si>
-    <t>1. Log in to Okta as **Admin**_x000D_
-2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
-3. From the **Dashboard** page, search your application_x000D_
-4. From the **Application** page, select the **Push Groups** tab_x000D_
-5. Under **Push Groups** tab, click **Push Groups**_x000D_
-6. Click **Find groups by rule**_x000D_
-7. For the rule name field, enter a rule name_x000D_
-9. For the group name, select **start with** and enter a group name_x000D_
-10. For the group description, select **start with** and enter a description_x000D_
-11. Click **Create Rule**_x000D_
-12. Log in to **Downstream Application** and observe the group is pushed_x000D_
-13. From the **Rule** pane, click **Active**_x000D_
-14. Click **Delete Rule**_x000D_
-15. From the **Delete Mapping Rule** pane, select **Leave associated groups**_x000D_
-16. Click **Delete**_x000D_
-17. Log in to **Downstream Application** and observe the group is not being removed</t>
-  </si>
-  <si>
-    <t>Permanently remove the rule from OKTA, remove the group from pushed groups in OKTA but don't remove pushed groups from a downstream application.</t>
-  </si>
-  <si>
-    <t>C9327</t>
-  </si>
-  <si>
-    <t>Verify Push Groups &gt;Bulk Edit &gt; Delete</t>
-  </si>
-  <si>
-    <t>1. Log in to Okta as **Admin**_x000D_
-2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
-3. From the **Dashboard** page, search your application_x000D_
-4. From the **Application** page, select the **Push Groups** tab_x000D_
-5. Under **Push Groups** tab, click **Push Groups**_x000D_
-6. Click **Find groups by name**_x000D_
-7. Enter a group to push_x000D_
-8. Under **Match result &amp; push action**, select  **Create Group**_x000D_
-9. Click **Save and Add Another**_x000D_
-11. Find and Add one more group, make sure groups have been created and pushed to a target application_x000D_
-12. Under **Push Groups**, click **Bulk Edit**_x000D_
-13. Select several groups to delete_x000D_
-14. Click **Delete** button_x000D_
-15. From the **Unlink Pushed Group** pane, select **Delete the group in the target app (recommended)**_x000D_
-16. Click **Unlink**_x000D_
-17. Log in to **Downstream Application** and observe the groups should be deleted</t>
-  </si>
-  <si>
-    <t>The groups should be deleted under **Push Groups** tab and should be deleted in the target app. User accounts will not be deleted.</t>
-  </si>
-  <si>
-    <t>C9331</t>
-  </si>
-  <si>
-    <t>Verify Push Groups &gt;Bulk Edit &gt; Delete &gt; Leave Associated Groups</t>
-  </si>
-  <si>
-    <t>1. Log in to Okta as **Admin**_x000D_
-2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
-3. From the **Dashboard** page, search your application_x000D_
-4. From the **Application** page, select the **Push Groups** tab_x000D_
-5. Under **Push Groups** tab, click **Push Groups**_x000D_
-6. Click **Find groups by name**_x000D_
-7. Enter a group to push_x000D_
-8. Under **Match result &amp; push action**, select  **Create Group**_x000D_
-9. Click **Save and Add Another**_x000D_
-11. Find and Add one more group, make sure groups have been created and pushed to a target application_x000D_
-12. Under **Push Groups**, click **Bulk Edit**_x000D_
-13. Select several groups to delete_x000D_
-14. Click **Delete** button_x000D_
-15. From the **Unlink Pushed Group** pane, select **Leave the group in the target app**_x000D_
-16. Click **Unlink**_x000D_
-17. Log in to **Downstream Application** and observe the groups should not be deleted</t>
-  </si>
-  <si>
-    <t>The groups should be deleted under **Push Groups** tab and should not be deleted in the target app. User accounts will not be deleted.</t>
-  </si>
-  <si>
-    <t>C9328</t>
-  </si>
-  <si>
-    <t>Verify Push Groups &gt;Bulk Edit &gt; Deactivate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Log in to Okta as **Admin**_x000D_
-2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
-3. From the **Dashboard** page, search your application_x000D_
-4. From the **Application** page, select the **Push Groups** tab_x000D_
-5. Under **Push Groups** tab, click **Push Groups**_x000D_
-6. Click **Find groups by name**_x000D_
-7. Enter a group to push_x000D_
-8. Under **Match result &amp; push action**, select  **Create Group**_x000D_
-9. Click **Save and Add Another**_x000D_
-11. Add one more group, make sure groups created and pushed to the application_x000D_
-12. Under **Push Groups**, click **Bulk Edit**_x000D_
-13. Select groups to deactivate_x000D_
-12. Click **Deactivate** button_x000D_
-</t>
-  </si>
-  <si>
-    <t>C9329</t>
-  </si>
-  <si>
-    <t>Verify Push Groups &gt;Bulk Edit &gt; Activate</t>
-  </si>
-  <si>
-    <t>1. SCIM app is added [C9298]_x000D_
-2. Provisioning is enabled [C9306]_x000D_
-3. The group with members already assigned to the App [C9307]_x000D_
-4. Rename app groups to match group name in Okta, flag ENABLED [C9313]_x000D_
-5. The group already pushed to the target app [C9312]_x000D_
-6. Deactivate groups [C9328]_x000D_
-_x000D_
-NOTE: _x000D_
-Any group members that you wish to push to the target app MUST be previously provisioned and assigned to the target app.</t>
-  </si>
-  <si>
-    <t>1. Log in to Okta as **Admin**_x000D_
-2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
-3. From the **Dashboard** page, search your application_x000D_
-4. From the **Application** page, select the **Push Groups** tab_x000D_
-5. Under **Push Groups**, click **Bulk Edit**_x000D_
-6. Select the group is in Inactive status_x000D_
-7. From the **Balk Edit** pane, click **Activate**</t>
-  </si>
-  <si>
-    <t>The memberships immediately pushed to the group in the target app.</t>
-  </si>
-  <si>
-    <t>C9332</t>
-  </si>
-  <si>
-    <t>Verify Push Groups &gt;Add Members As Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Log in to Okta as **Admin**_x000D_
-2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
-3. From the **Dashboard** page, search your application_x000D_
-4. From the **Application** page, select the **Push Groups** tab_x000D_
-5. Under **Push Groups** tab, click **Push Groups**_x000D_
-6. Click **Find groups by name**_x000D_
-7. Enter a group to push_x000D_
-8. Under **Match result &amp; push action**, select  **Create Group**_x000D_
-9. Click **Save**_x000D_
-10. Log in to **Downstream Application** and observe the created group_x000D_
-11. From the **Push Groups** tab, click an end group's name_x000D_
-12. From the **Group Edit** page, click **Add members**_x000D_
-13. From the **Add Members to &lt;Your Group Name&gt;** pane, search required member_x000D_
-14. From the **Add Members to &lt;Your Group Name&gt;** pane, click **Add**_x000D_
-15. From the **Add Members to &lt;Your Group Name&gt;** pane, click **Done**_x000D_
-16. Log in to **Downstream Application** and observe, the user should be added to a group_x000D_
-</t>
-  </si>
-  <si>
-    <t>This group should be created in a target app. _x000D_
-All users from the group are assigned in the app to this group. _x000D_
-All additional user should be added to the application_x000D_
-_x000D_
-_x000D_
-NOTE: While Group Push adds these groups to third-party apps, it does not create groups in Okta.</t>
-  </si>
-  <si>
-    <t>C9333</t>
-  </si>
-  <si>
-    <t>Verify Push Groups &gt; Remove Members From Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Log in to Okta as **Admin**_x000D_
-2. Go to https:&lt;domain&gt;/admin/dashboard_x000D_
-3. From the **Dashboard** page, search your application_x000D_
-4. From the **Application** page, select the **Push Groups** tab_x000D_
-5. Under **Push Groups** tab, click **Push Groups**_x000D_
-6. Click **Find groups by name**_x000D_
-7. Enter a group to push_x000D_
-8. Under **Match result &amp; push action**, select  **Create Group**_x000D_
-9. Click **Save**_x000D_
-10. Log in to **Downstream Application** and observe the created group and provisioned members _x000D_
-11. From the **Push Groups** tab, click an end group's name_x000D_
-12. From the **Group Edit** page, remove a member to click **X** icon_x000D_
-13. From the **Unassign User** pane, click **OK**_x000D_
-14. Log in to **Downstream Application** and observe the user should be unassigned from group_x000D_
-_x000D_
-</t>
-  </si>
-  <si>
-    <t>The user has been unassigned from a group and removed from the application because as it was assigned as a group assignment</t>
-  </si>
-  <si>
-    <t>1. Log in to Okta as **Admin**
-2. Go to https:&lt;domain&gt;/admin/dashboard
-3. From the **Dashboard** page, search your application
-4. From the **Application** page, select the **Push Groups** tab
-5. Under **Push Groups** tab, click **Push Groups**
-6. Click **Find groups by name**
-7. Enter a group to push
-8. Under **Match result &amp; push action**, select  **Create Group**
-9. Click **Save**
-10. From the **Push Groups** tab, click **Active**
-11. Log in to **Downstream Application** and observe the created group
-12. From the **Downstream application** add several new mebers to the group, members should not be provisioned from OKTA
-13. From the **Push Groups** tab in OKTA, click **Active**
-114. Click *Push Now**</t>
-  </si>
-  <si>
-    <t>C21902</t>
-  </si>
-  <si>
-    <t>Verify OAUTH2 using NOT white-listed redirect URIs</t>
-  </si>
-  <si>
-    <t>SCIM app is added C9298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Log in to Okta as Admin
-2. Go to https:&lt;domain&gt;/admin/dashboard
-3. From the Dashboard page, search for your application
-4. From the Application page, select the Provisioning tab
-5. From Settings, click on API Integration
-6. Click on Configure API Integration
-7. Click on the Enable API integration check-box
-8. Click on Authenticate with your app
-9. You will be redirected to the login page, which prompts you to enter your credentials
-9.1 Change the callback URI to a blacklisted URI. For example:
-https://ct1-bootstrap.clouditude.com/admin/app/cpc/%7BappName%7D/oauth/callback
-10. You will be asked to confirm access to your OKTA account
-11. You will then be redirected back to OKTA and will receive an error.
-</t>
-  </si>
-  <si>
-    <t>Any URI that is not white-listed  will not go through and will not result in a successful authentication. It will close after you update</t>
-  </si>
-  <si>
-    <t>If you select the Send user activation email now check box, your end user immediately receives their Welcome to Okta! activation email. Otherwise, these users are at Pending Activation status and are not notified via email of their Okta account.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. From the **Group** page, click **Add Group**
-2. From the **Add Group** pane, enter **Name** and **Description** of the Group
-3. Click  **Add Group**
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. From the **People** page, click **Add Person**.
-2. Enter the **First name** and **Last name.**
-3. Enter the **Username.**
-4. The user name must be in email address format, and is typically the user's primary email address. Users sign in using this username.
-5. Enter a **Primary email** address.
-6. Click **Save**, or add another by clicking **Save and Add Another**.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. From the **Group** page, search out a required group
-2. Click an end group's name
-3. From the **Group edit** page, click **Manage People**
-4. From the **Not Members** pane, search out a required member
-5. Click their name or the **+** icon to add them to the Members pane
-6. Click **Save**
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Log in to Okta as Admin 
-2. Go to https:&lt;domain&gt;/admin/dashboard
-3. From the **Dashboard** page, search your application 
-4. From the **Application page**, select **Provisioning tab**
-5. From the **Settings**, click **Integration**
-6. Click **Configure API Integration**
-7. Click **Enable API integration** check-box
-8. Enter Base Url and token according to a configuration guide
-9. Click **Save**
-10. From the **Settings**, click **To App**
-11. Click **Edit**
-12. Enable features (e.g Create Users)
-13. Click **Save**
-</t>
-  </si>
-  <si>
-    <t>1. Log in to Okta as Admin 
-2. Go to https:&lt;domain&gt;/admin/dashboard
-3. From the **Dashboard** page, search your application 
-4. From the **Application page**, select **Provisioning tab**
-5. From the **Settings**, click **API Integration**
-6. Click **Configure API Integration**
-7. Click **Enable API integration** check-box
-8. Enter Base Url and token according to a configuration guide
-9. Click **Save**
-10. Click **Assignment** tab and a member to app [C9290]
-11. From the **Settings**, click **Integration**
-12. Click **Edit**
-13. Remove a tick from ** Enable API integration** check-box
-14. Click **Save**
-16. From the **Assignment** tab, click the edit icon
-17. Update attributes 
-18. Click **Save** changes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Log in to Okta as Admin 
-2. Go to https:&lt;domain&gt;/admin/dashboard
-3. From the **Dashboard** page, search your application 
-4. From the **Application page**, select **Provisioning tab**
-5. From the **Settings**, click **Integration**
-6. Click **Configure API Integration**
-7. Click **Enable API integration** check-box
-8. Enter incorrect userUrl or token
-9. Click **Save**
-</t>
-  </si>
-  <si>
-    <t>1. Log in to Okta as Admin 
-2. Go to https:&lt;domain&gt;/admin/dashboard
-3. From the **Dashboard** page, search your application 
-4. From the **Application page**, select **Provisioning tab**
-5. From the **Settings**, click **API Integration**
-6. Click **Configure API Integration**
-7. Click **Enable API integration** check-box
-8. Enter a new token
-9. Click **Save**</t>
-  </si>
-  <si>
-    <t>1. Log in to Okta as Admin 
-2. Go to https:&lt;domain&gt;/admin/dashboard
-3. From the **Dashboard** page, search your application 
-4. From the **Application page**, select **Provisioning tab**
-5. From the **Settings**, click **Integration**
-6. Click **Configure API Integration**
-7. Click **Enable API integration** check-box
-8. Enter Base Url and token according to a configuration guide
-9. Click **Save**
-10. From the **Settings**, click **To App**
-11. Click **Edit**
-12. Enable features (e.g Create Users)
-13. Click **Save**
-14. From the **Application** page, click **Sign On** tab
-15. From the **Settings** pane, click **Edit** and select **Secure Web Authentication**
-16. Click **Save**
-17. From the **Application** page, select the Assignment Tab &gt; Assign Button &gt; Assign to People
-18. From the **Assign &lt;Your App Name&gt; to People** pane, search an already created user (C9296) 
-19. Click **Assign** and submit required attributes
-20. Click **Save and Go Back**
-21. Click **Done**
-22. Observe email for the assigned user and complete registration
-23. Log in to **OKTA** as an assigned user, utilize chiclet</t>
-  </si>
-  <si>
-    <t>1. Log in to Okta as Admin 
-2. Go to https:&lt;domain&gt;/admin/dashboard
-3. From the **Dashboard** page, search your application 
-4. From the **Application page**, select **Provisioning tab**
-5. From the **Settings**, click **Integration**
-6. Click **Configure API Integration**
-7. Click **Enable API integration** check-box
-8. Enter userUrl or token according to a configuration guide
-9. Click **Save**
-10. From the **Settings**, click **To App**
-11. Click **Edit**
-12. Enable features (e.g Create Users)
-13. Click **Save**
-14. From the **Application** page, click **Sign On** tab
-15. From the **Settings** pane, click **Edit** and select **SAML 2.0**, configure SAML according to  the guide **View Setup Instructions**
-16. Click **Save**
-17. From the **Application** page, select the Assignment Tab &gt; Assign Button &gt; Assign to People
-18. From the **Assign &lt;Your App Name&gt; to People** pane, search an already created user (C9296) 
-19. Click **Assign** and submit required attributes
-20. Click **Save and Go Back**
-21. Click **Done**
-22. Observe email for the assigned user and complete registration
-23. Log in to **OKTA** as an assigned user, utilize chiclet</t>
-  </si>
-  <si>
-    <t>Verify mapping according to your configuration</t>
-  </si>
-  <si>
-    <t>1. Log in to Okta as **Admin** 
-2. Go to https:&lt;domain&gt;/admin/dashboard
-3. From the **Dashboard** page, search your application 
-4. From the **Application** page, select **Provisioning** tab
-5. Under **Provisioning** tab select **Settings**
-6. Click **Integration**
-7. Click **&lt;Your App Name&gt;: Configuration Guide**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Config guide should be available by the link
-All screenshots should contain Up To Date user interface - NOT DRAFT
-All steps should be clear
-The configuration guide should contain the following headlines: Supported Features, Requirements, Configuration Steps, Attributes and Mapping, Known Issues/Troubleshooting and Tips
-NOTE: For Known Issues/Troubleshooting and Tips - Leave N/A if you have nothing to add right now.
-Examples:
-https://docs.h5mag.com/advanced-features/okta-integration
-http://sharpr.com/home/how-to-configure-provisioning-for-sharpr/
- </t>
-  </si>
-  <si>
-    <t>1. Log in to Okta as **Admin**
-2. Go to https:&lt;domain&gt;/admin/dashboard
-3. From the **Dashboard** page, search your application
-4. From the **Application** page, select the Assignments Tab &gt; Assign Button &gt; Assign to People
-5. From the **Assign &lt;Your App Name&gt; to People** pane, search an already created user (C9296) 
-6. Click **Assign** and submit required attributes
-7. Click **Save and Go Back**
-8. Click **Done**
-9. Log in to **Downstream Application** and observe the assigned user</t>
-  </si>
-  <si>
-    <t>1. Log in to Okta as **Admin**
-2. Go to Directory &gt; People.
-3. Search User [C9296]  and click an end user's name.
-4. From the **Group Edit** page, click **Profile**
-5. Click **Edit**
-6. Update all attributes
-7. Click **Save** 
-8. Go to https:&lt;domain&gt;/admin/dashboard
-3. From the **Dashboard** page, search your application
-4. From the **Application** page, select the Assignments Tab &gt; Assign Button &gt; Assign to People
-5. From the **Assign &lt;Your App Name&gt; to People** pane, search an already created and updated user (C9296) 
-6. Click **Assign**
-7. Click **Save and Go Back**
-8. Click **Done**
-9. Log in to **Downstream Application** and observe the assigned user</t>
-  </si>
-  <si>
-    <t>1. Log in to Okta as **Admin**
-2. Go to https:&lt;domain&gt;/admin/dashboard
-3. From the **Dashboard** page, search your application
-4. From the **Application** page, select the Assignments Tab &gt; Assign Button &gt; Assign to People
-5. From the **Assign &lt;Your App Name&gt; to People** pane, search an already created user (C9296), the same user already created in an application
-6. Click **Assign**
-7. Click **Save and Go Back**
-8. Click **Done**
-9. Log in to **Downstream Application** and observe the member from okta should be linked with member from application</t>
+24. Log in to **Downstream Application** and observe the new member should be pushed to the group in ap</t>
   </si>
 </sst>
 </file>
@@ -2052,8 +2051,8 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2087,342 +2086,342 @@
     </row>
     <row r="2" spans="1:6" ht="187" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="306" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="238" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="289" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>93</v>
+        <v>286</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="323" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="204" x14ac:dyDescent="0.2">
@@ -2439,7 +2438,7 @@
         <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
@@ -2519,7 +2518,7 @@
         <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>13</v>
@@ -2539,7 +2538,7 @@
         <v>31</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>32</v>
@@ -2567,82 +2566,82 @@
     </row>
     <row r="26" spans="1:6" ht="187" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="187" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="170" x14ac:dyDescent="0.2">
@@ -2699,610 +2698,610 @@
         <v>50</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>57</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="388" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>165</v>
+        <v>288</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="187" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="221" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="255" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="323" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="221" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="306" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="306" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="F47" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="272" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="221" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="340" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="372" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="372" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="356" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="289" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="272" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="255" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="356" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="404" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="356" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="221" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="204" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="238" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/packages/@okta/vuepress-site/.vuepress/public/standards/SCIM/SCIMFiles/okta-scim-test-plan.xlsx
+++ b/packages/@okta/vuepress-site/.vuepress/public/standards/SCIM/SCIMFiles/okta-scim-test-plan.xlsx
@@ -11,7 +11,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh9YLoSlLCMooKKfKEPOvhuHt8lEA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgUV4+ezvX3sw50xbWI8Q5Ls/TZxg=="/>
     </ext>
   </extLst>
 </workbook>
@@ -44,7 +44,7 @@
     <t>Add People</t>
   </si>
   <si>
-    <t>Preconditions - SCIM App set up / Add People / Add Group</t>
+    <t>Preconditions - SCIM App Setup / Add People / Add Group</t>
   </si>
   <si>
     <t>1. Sign in to Okta as Admin</t>
@@ -53,44 +53,19 @@
     <t xml:space="preserve">1. From the **People** page, click **Add Person**.
 2. Enter the **First name** and **Last name.**
 3. Enter the **Username.**
-4. The user name must be in email address format, and is typically the user's primary email address. Users sign in using this user name.
+4. The user name must be in email address format, and is typically the user's primary email address. Users sign in using this username.
 5. Enter a **Primary email** address.
-6. Click **Save** or add another by clicking **Save and Add Another**.
+6. Click **Save**, or add another by clicking **Save and Add Another**.
 </t>
   </si>
   <si>
-    <t>If you select the Send user activation email now check box, your end user immediately receives their Welcome to Okta activation email. Otherwise, these users stay in Pending Activation status and are not notified of their Okta account through email.</t>
+    <t>If you select the Send user activation email now check box, your end user immediately receives their Welcome to Okta! activation email. Otherwise, these users are at Pending Activation status and are not notified through email of their Okta account.</t>
   </si>
   <si>
     <t>C9297</t>
   </si>
   <si>
     <t>Add Group</t>
-  </si>
-  <si>
-    <t>1. Sign in to Okta as Admin 
-2. Go to https:&lt;domain&gt;/admin/dashboard
-3. From the **Dashboard** page, search your application 
-4. From the **Application page**, select **Provisioning tab**
-5. From the **Settings**, click **Integration**
-6. Click **Configure API Integration**
-7. Click **Enable API integration** check-box
-8. Enter userUrl or token according to a configuration guide
-9. Click **Save**
-10. From the **Settings**, click **To App**
-11. Click **Edit**
-12. Enable features (e.g Create Users)
-13. Click **Save**
-14. From the **Application** page, click **Sign On** tab
-15. From the **Settings** pane, click **Edit** and select **SAML 2.0**, configure SAML according to the guide **View Setup Instructions**
-16. Click **Save**
-17. From the **Application** page, select the Assignment Tab &gt; Assign Button &gt; Assign to People
-18. From the **Assign &lt;Your App Name&gt; to People** pane, search an already created user (C9296) 
-19. Click **Assign** and submit required attributes
-20. Click **Save and Go Back**
-21. Click **Done**
-22. Observe email for the assigned user and complete registration
-23. Sign in to **Okta** as an assigned user, use Okta tile</t>
   </si>
   <si>
     <t>Sign in to Okta as Admin</t>
@@ -102,19 +77,19 @@
 </t>
   </si>
   <si>
-    <t>The group is successfully created in Okta</t>
+    <t>The group successfully created in Okta</t>
   </si>
   <si>
     <t>C9298</t>
   </si>
   <si>
-    <t>Preconditions - SCIM App Setup / Add People / Add Group</t>
+    <t>Setup SCIM App</t>
   </si>
   <si>
     <t xml:space="preserve">Configure Okta </t>
   </si>
   <si>
-    <t>Set up SCIM application according to your configuration guide</t>
+    <t>Setup SCIM application according to your configuration guide</t>
   </si>
   <si>
     <t>Application successfully configured</t>
@@ -186,7 +161,7 @@
     <t>C21902</t>
   </si>
   <si>
-    <t>Verify OAUTH2 using NOT allowlisted redirect URIs</t>
+    <t>Verify OAUTH2 using NOT allow-listed redirect URIs</t>
   </si>
   <si>
     <t>Precondition - Provisioning and SSO</t>
@@ -211,7 +186,7 @@
 </t>
   </si>
   <si>
-    <t>Any URI that is not allowlisted will not go through and will not result in a successful authentication. It will close after you update</t>
+    <t>Any URI that is not allow-listed  will not go through and will not result in a successful authentication. It will close after you update</t>
   </si>
   <si>
     <t>C9306</t>
@@ -234,7 +209,7 @@
 9. Click **Save**
 10. From the **Settings**, click **To App**
 11. Click **Edit**
-12. Enable features (e.g Create Users)
+12. Enable features (for example, Create Users)
 13. Click **Save**
 </t>
   </si>
@@ -327,15 +302,6 @@
     <t>Verify Login to App SWA</t>
   </si>
   <si>
-    <t>User successfully signed in to App through Okta tile</t>
-  </si>
-  <si>
-    <t>C9343</t>
-  </si>
-  <si>
-    <t>Verify Login to App SAML</t>
-  </si>
-  <si>
     <t>1. Sign in to Okta as Admin 
 2. Go to https:&lt;domain&gt;/admin/dashboard
 3. From the **Dashboard** page, search your application 
@@ -343,14 +309,14 @@
 5. From the **Settings**, click **Integration**
 6. Click **Configure API Integration**
 7. Click **Enable API integration** check-box
-8. Enter userUrl or token according to a configuration guide
+8. Enter Base Url and token according to a configuration guide
 9. Click **Save**
 10. From the **Settings**, click **To App**
 11. Click **Edit**
-12. Enable features (e.g Create Users)
+12. Enable features (for example, Create Users)
 13. Click **Save**
 14. From the **Application** page, click **Sign On** tab
-15. From the **Settings** pane, click **Edit** and select **SAML 2.0**, configure SAML according to  the guide **View Setup Instructions**
+15. From the **Settings** pane, click **Edit** and select **Secure Web Authentication**
 16. Click **Save**
 17. From the **Application** page, select the Assignment Tab &gt; Assign Button &gt; Assign to People
 18. From the **Assign &lt;Your App Name&gt; to People** pane, search an already created user (C9296) 
@@ -358,7 +324,19 @@
 20. Click **Save and Go Back**
 21. Click **Done**
 22. Observe email for the assigned user and complete registration
-23. Sign in to **Okta** as an assigned user using the Okta tile</t>
+23. Sign in to **Okta** as an assigned user, using Okta tile</t>
+  </si>
+  <si>
+    <t>User successfully Sign in to App through Okta tile</t>
+  </si>
+  <si>
+    <t>C9343</t>
+  </si>
+  <si>
+    <t>Verify Login to App SAML</t>
+  </si>
+  <si>
+    <t>User successfully Sign in to app through SAML</t>
   </si>
   <si>
     <t>C9289</t>
@@ -421,7 +399,7 @@
     <t>Verify Attributes and Mapping</t>
   </si>
   <si>
-    <t>Okta is able to master attributes like first name, last name, phone number, employee id and so on.  Verify attribute mappings between Okta and downstream application. The whole list of attributes should be listed in the configuration guide</t>
+    <t>Okta is able to master attributes like first name, last name, phone number, employee ID and so on.  Verify attributes mapping between Okta and downstream application. The whole list of attributes should be listed in configuration guide</t>
   </si>
   <si>
     <t>Verify mapping according to your configuration</t>
@@ -513,8 +491,8 @@
 13. Observe re-activated user in a downstream application</t>
   </si>
   <si>
-    <t>The user should be reactivated in the target app. That is, the user should have a status of active.  The User has the same ID and the same attributes which were synchronized from Okta. 
- (The user is automatically reactivated only if user is assigned through a group assignment; otherwise need to assign a member manually to a downstream application)</t>
+    <t>The user should be reactivated in the target app. That is, the user should have a status of active.  The User has the same ID and same attributes which were synchronized from Okta. 
+ (The user will be automatically reactivated only if user assigned through group assignment otherwise need to assign a member manually to a downstream application)</t>
   </si>
   <si>
     <t>C9300</t>
@@ -805,7 +783,7 @@
 10. Observe the user</t>
   </si>
   <si>
-    <t>Suspended users cannot sign in to Okta and receive a message indicating they are suspended. The Okta sign in is blocked for apps that support SAML. App and group memberships are maintained for suspended users and are reinstated if the user is subsequently unsuspended.</t>
+    <t>Suspended users cannot Sign in to Okta and receive a message indicating they are suspended. The Okta sign in is blocked for apps that support SAML. App and group memberships are maintained for suspended users and are reinstated if the user is subsequently unsuspended.</t>
   </si>
   <si>
     <t>C9311</t>
@@ -825,7 +803,7 @@
   </si>
   <si>
     <t xml:space="preserve">This removes the group and users from assignment tab. All users from this group will be removed or deactivated in the app. 
-(NOTE: If app does not support DELETE, the end users are listed as Deactivated under the Status column in App)
+(NOTE: If app does not support DELETE, then end users are listed as Deactivated under the Status column in App)
 </t>
   </si>
   <si>
@@ -859,7 +837,7 @@
 16. Sign in to **Downstream Application** and observe the assigned user</t>
   </si>
   <si>
-    <t>Okta sets the user’s password to either match their Okta password or to be a randomly generated password.</t>
+    <t xml:space="preserve">Okta sets the user’s password to either match the Okta password or to be a randomly generated password. </t>
   </si>
   <si>
     <t>C9302</t>
@@ -897,8 +875,8 @@
 24. Sign in to **Downstream Application**, use the new password</t>
   </si>
   <si>
-    <t xml:space="preserve">Okta sets the user’s password or user sets a new password it depends on a configuration. The user should be able to sign in to the application using a new password. 
-The user should not be able to sign in to a downstream application using an old password. </t>
+    <t xml:space="preserve">Okta sets the user’s password or user sets a new password it depends on a configuration. The user should be able to Sign in to the application using a new password. 
+The user should not be able to Sign in to a downstream application using an old password. </t>
   </si>
   <si>
     <t>C9303</t>
@@ -979,7 +957,7 @@
 5. Under  **Assignments tab**, click the pencil icon for imported and confirmed member [C9303]
 6. From the **Edit User Assignment** pane, edit several attributes
 7. Click **Save**
-8. Observe the user in a downstream application</t>
+8. Observe the user a downstream application</t>
   </si>
   <si>
     <t>The user should be updated in a downstream application based on values derived from the Edit User Assignment.</t>
@@ -1039,7 +1017,7 @@
 10. Sign in to **Downstream Application** and observe the created group</t>
   </si>
   <si>
-    <t>This group should be created in a target app. This shows group push working without enhanced functionality. All users from the group are assigned in the app to this group. 
+    <t>This group should be created in a target app. This test shows group push without enhanced functionality. All users from the group are assigned in the app to this group. 
 NOTE: While Group Push adds these groups to third-party apps, it does not create groups in Okta.</t>
   </si>
   <si>
@@ -1268,7 +1246,7 @@
 11. Sign in to **Downstream Application** and observe the group</t>
   </si>
   <si>
-    <t>This shows the synchronization of groups, retaining their appearance in the app. You're able to keep adding new members to the group and those changes will appear in the target app. All old users in the app which linked to the group remain the same place</t>
+    <t>The synchronization of groups, retaining their appearance in the app. You're able to keep adding new members to the group and those changes will appear in the target app. All old users in the app which linked to the group remain the same place</t>
   </si>
   <si>
     <t>C9323</t>
@@ -1596,7 +1574,7 @@
 </t>
   </si>
   <si>
-    <t>When a user is deactivated in the app, then after the import the user will be deactivated in Okta</t>
+    <t>When a user is deactivated in the app, then after an import, the user is deactivated in Okta</t>
   </si>
   <si>
     <t>C9360</t>
@@ -2000,13 +1978,13 @@
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -2020,214 +1998,214 @@
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>64</v>
@@ -2241,16 +2219,16 @@
         <v>66</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -2324,7 +2302,7 @@
         <v>85</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>86</v>
@@ -2649,7 +2627,7 @@
       <c r="E34" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2744,7 +2722,7 @@
         <v>187</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>188</v>
@@ -2929,7 +2907,7 @@
       <c r="E48" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="3" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3164,7 +3142,7 @@
         <v>279</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>280</v>

--- a/packages/@okta/vuepress-site/.vuepress/public/standards/SCIM/SCIMFiles/okta-scim-test-plan.xlsx
+++ b/packages/@okta/vuepress-site/.vuepress/public/standards/SCIM/SCIMFiles/okta-scim-test-plan.xlsx
@@ -1,14 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardopedayo/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC1F0AF-265D-0B43-99A6-788EB6019988}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$F$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$62</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgUV4+ezvX3sw50xbWI8Q5Ls/TZxg=="/>
@@ -1632,32 +1642,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1665,7 +1677,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1675,48 +1687,61 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1906,32 +1931,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.56"/>
-    <col customWidth="1" min="2" max="2" width="25.67"/>
-    <col customWidth="1" min="3" max="3" width="19.0"/>
-    <col customWidth="1" min="4" max="4" width="31.0"/>
-    <col customWidth="1" min="5" max="5" width="55.78"/>
-    <col customWidth="1" min="6" max="6" width="44.0"/>
-    <col customWidth="1" min="7" max="26" width="10.56"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="55.7109375" customWidth="1"/>
+    <col min="6" max="6" width="44" customWidth="1"/>
+    <col min="7" max="26" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.0" customHeight="1">
+    <row r="1" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1971,7 +1996,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1991,7 +2016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:26" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -2011,7 +2036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -2031,7 +2056,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:26" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -2051,7 +2076,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:26" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -2071,7 +2096,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="136" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -2091,7 +2116,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" s="6" customFormat="1" ht="289" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
@@ -2111,7 +2136,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" ht="238" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
@@ -2131,7 +2156,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:26" ht="289" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
@@ -2151,7 +2176,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="170" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -2171,7 +2196,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="153" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>56</v>
       </c>
@@ -2191,7 +2216,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>61</v>
       </c>
@@ -2211,7 +2236,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>65</v>
       </c>
@@ -2231,7 +2256,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:26" ht="136" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>68</v>
       </c>
@@ -2251,7 +2276,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" ht="170" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>74</v>
       </c>
@@ -2271,7 +2296,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>79</v>
       </c>
@@ -2291,7 +2316,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:6" ht="323" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>83</v>
       </c>
@@ -2311,7 +2336,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:6" ht="204" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>88</v>
       </c>
@@ -2331,7 +2356,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:6" ht="289" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>94</v>
       </c>
@@ -2351,7 +2376,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>99</v>
       </c>
@@ -2371,7 +2396,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:6" ht="221" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>104</v>
       </c>
@@ -2391,7 +2416,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:6" ht="306" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>109</v>
       </c>
@@ -2411,7 +2436,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:6" ht="221" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>113</v>
       </c>
@@ -2431,7 +2456,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:6" ht="204" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>118</v>
       </c>
@@ -2451,7 +2476,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>123</v>
       </c>
@@ -2471,7 +2496,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>129</v>
       </c>
@@ -2491,7 +2516,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:6" ht="187" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>134</v>
       </c>
@@ -2511,7 +2536,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>138</v>
       </c>
@@ -2531,7 +2556,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>142</v>
       </c>
@@ -2551,7 +2576,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>147</v>
       </c>
@@ -2571,7 +2596,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>151</v>
       </c>
@@ -2591,7 +2616,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>156</v>
       </c>
@@ -2611,7 +2636,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:6" ht="372" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>160</v>
       </c>
@@ -2631,7 +2656,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>165</v>
       </c>
@@ -2651,7 +2676,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:6" ht="187" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>169</v>
       </c>
@@ -2671,7 +2696,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>175</v>
       </c>
@@ -2691,7 +2716,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>180</v>
       </c>
@@ -2711,7 +2736,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>185</v>
       </c>
@@ -2731,7 +2756,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:6" ht="204" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>190</v>
       </c>
@@ -2751,7 +2776,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:6" ht="238" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>196</v>
       </c>
@@ -2771,7 +2796,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:6" ht="272" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>201</v>
       </c>
@@ -2791,7 +2816,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:6" ht="187" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>205</v>
       </c>
@@ -2811,7 +2836,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:6" ht="272" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>209</v>
       </c>
@@ -2831,7 +2856,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:6" ht="372" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>214</v>
       </c>
@@ -2851,7 +2876,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>218</v>
       </c>
@@ -2871,7 +2896,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:6" ht="272" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>222</v>
       </c>
@@ -2891,7 +2916,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:6" ht="272" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>226</v>
       </c>
@@ -2911,7 +2936,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:6" ht="204" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>231</v>
       </c>
@@ -2931,7 +2956,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:6" ht="306" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>235</v>
       </c>
@@ -2951,7 +2976,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:6" ht="340" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>240</v>
       </c>
@@ -2971,7 +2996,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:6" ht="340" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>244</v>
       </c>
@@ -2991,7 +3016,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:6" ht="323" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>248</v>
       </c>
@@ -3011,7 +3036,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:6" ht="255" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>252</v>
       </c>
@@ -3031,7 +3056,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:6" ht="255" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>255</v>
       </c>
@@ -3051,7 +3076,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:6" ht="238" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>260</v>
       </c>
@@ -3071,7 +3096,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:6" ht="323" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>265</v>
       </c>
@@ -3091,7 +3116,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:6" ht="372" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>269</v>
       </c>
@@ -3111,7 +3136,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:6" ht="323" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>273</v>
       </c>
@@ -3131,7 +3156,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:6" ht="204" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>277</v>
       </c>
@@ -3151,7 +3176,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:6" ht="204" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>282</v>
       </c>
@@ -3171,7 +3196,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:6" ht="238" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>287</v>
       </c>
@@ -3191,952 +3216,950 @@
         <v>290</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="$A$1:$F$62"/>
+  <autoFilter ref="A1:F62" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C8"/>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/packages/@okta/vuepress-site/.vuepress/public/standards/SCIM/SCIMFiles/okta-scim-test-plan.xlsx
+++ b/packages/@okta/vuepress-site/.vuepress/public/standards/SCIM/SCIMFiles/okta-scim-test-plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardopedayo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alatiniuk/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC1F0AF-265D-0B43-99A6-788EB6019988}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05296C65-1161-4D49-8B06-E848CB518D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1069,22 +1069,6 @@
     <t>Verify Push Groups &gt; Push Now</t>
   </si>
   <si>
-    <t>1. Sign in to Okta as **Admin**
-2. Go to https:&lt;domain&gt;/admin/dashboard
-3. From the **Dashboard** page, search your application
-4. From the **Application** page, select the **Push Groups** tab
-5. Under **Push Groups** tab, click **Push Groups**
-6. Click **Find groups by name**
-7. Enter a group to push
-8. Under **Match result &amp; push action**, select  **Create Group**
-9. Click **Save**
-10. From the **Push Groups** tab, click **Active**
-11. Sign in to **Downstream Application** and observe the created group
-12. From the **Downstream application** add several new members to the group, members should not be provisioned from Okta
-13. From the **Push Groups** tab in Okta, click **Active**
-114. Click *Push Now**</t>
-  </si>
-  <si>
     <t>Push Now serves to "force" a push in the rare occurrence when the state of Okta and the target app are no longer in sync. This action performs a full overwrite of the overall membership and makes Okta the master for the group. The exception to this is Active Directory, which only pushes the newest members to the group, and does not overwrite overall membership.</t>
   </si>
   <si>
@@ -1637,6 +1621,21 @@
   </si>
   <si>
     <t xml:space="preserve">Deactivating end user revokes their app assignments, the end user is listed as Deactivated under the Status column in User Profile. </t>
+  </si>
+  <si>
+    <t>1. Log in to Okta as Admin
+2. Go to https:/admin/dashboard
+3. From the Dashboard page, search your application
+4. From the Application page, select the Push Groups tab
+5. Under Push Groups tab, click Push Groups
+6. Click Find groups by name
+7. Enter a group to push
+8. Under Match result &amp; push action, select  Create Group
+9. Click Save
+10. Log in to Downstream Application and observe the created group
+11. From the Downstream application add several new members to the group, members should not be provisioned from OKTA
+12. From the Push Groups tab in OKTA, click Active
+13. Click *Push Now**</t>
   </si>
 </sst>
 </file>
@@ -1941,8 +1940,8 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2796,7 +2795,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="272" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="238" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>201</v>
       </c>
@@ -2810,58 +2809,58 @@
         <v>193</v>
       </c>
       <c r="E42" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="187" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>194</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="272" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="372" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>192</v>
@@ -2870,18 +2869,18 @@
         <v>193</v>
       </c>
       <c r="E45" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>192</v>
@@ -2890,58 +2889,58 @@
         <v>193</v>
       </c>
       <c r="E46" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="272" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E47" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="272" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D48" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="F48" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="204" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>192</v>
@@ -2950,178 +2949,178 @@
         <v>193</v>
       </c>
       <c r="E49" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="306" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="F50" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="340" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E51" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="340" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E52" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="323" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E53" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="255" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="255" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D55" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="F55" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="238" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="F56" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="323" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E57" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="372" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>192</v>
@@ -3130,18 +3129,18 @@
         <v>193</v>
       </c>
       <c r="E58" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="323" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>192</v>
@@ -3150,70 +3149,70 @@
         <v>193</v>
       </c>
       <c r="E59" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="204" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E60" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="204" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="C61" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D61" s="3" t="s">
+      <c r="E61" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="F61" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="238" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="C62" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E62" s="4" t="s">
+      <c r="F62" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
